--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13220" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13260"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
-    <sheet name="shop" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>主键</t>
   </si>
@@ -23,7 +22,25 @@
     <t>名称</t>
   </si>
   <si>
-    <t>描述</t>
+    <t>#描述</t>
+  </si>
+  <si>
+    <t>是否限购</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>#注释</t>
   </si>
   <si>
     <t>id</t>
@@ -35,12 +52,39 @@
     <t>desc</t>
   </si>
   <si>
-    <t>int</t>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
     <t>cs</t>
   </si>
   <si>
@@ -50,13 +94,31 @@
     <t>刺客英雄</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>2021-12-12 00:00:00</t>
+  </si>
+  <si>
+    <t>{"itemId": 1001, "num": 100}</t>
+  </si>
+  <si>
+    <t>1001:100</t>
+  </si>
+  <si>
+    <t>123,456,789</t>
+  </si>
+  <si>
     <t>张良</t>
   </si>
   <si>
     <t>法师英雄</t>
   </si>
   <si>
-    <t>#描述</t>
+    <t>{"itemId": 1003, "num": 100}</t>
+  </si>
+  <si>
+    <t>1002:200</t>
   </si>
 </sst>
 </file>
@@ -65,8 +127,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -92,15 +154,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,19 +177,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,12 +217,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -155,14 +270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,53 +278,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +293,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +500,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,197 +584,164 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,15 +1063,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
+  <cols>
+    <col min="5" max="5" width="24.5446428571429" customWidth="1"/>
+    <col min="6" max="6" width="43.1517857142857" customWidth="1"/>
+    <col min="8" max="8" width="11.7142857142857"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,146 +1086,156 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1000</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1001</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="5" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" customFormat="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:3">
-      <c r="A5">
-        <v>1000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:3">
-      <c r="A6">
-        <v>1001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260"/>
+    <workbookView windowWidth="28800" windowHeight="13260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
+    <sheet name="shop" sheetId="2" r:id="rId2"/>
+    <sheet name="#我不会被导出" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>主键</t>
   </si>
@@ -119,6 +121,9 @@
   </si>
   <si>
     <t>1002:200</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -126,10 +131,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -141,14 +146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,8 +160,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,22 +199,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +237,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -233,14 +276,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,37 +288,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -293,67 +298,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,109 +460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,8 +495,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +505,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,8 +528,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,17 +575,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,148 +594,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,8 +1070,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
@@ -1239,4 +1244,316 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <cols>
+    <col min="5" max="5" width="30.3482142857143" customWidth="1"/>
+    <col min="6" max="6" width="32.5892857142857" customWidth="1"/>
+    <col min="7" max="7" width="16.6607142857143" customWidth="1"/>
+    <col min="8" max="8" width="20.3839285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <cols>
+    <col min="5" max="5" width="30.3482142857143" customWidth="1"/>
+    <col min="6" max="6" width="32.5892857142857" customWidth="1"/>
+    <col min="7" max="7" width="16.6607142857143" customWidth="1"/>
+    <col min="8" max="8" width="20.3839285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:8">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:8">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:8">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:8">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/item.xlsx
+++ b/excel/item.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
-    <sheet name="shop" sheetId="2" r:id="rId2"/>
-    <sheet name="#我不会被导出" sheetId="3" r:id="rId3"/>
+    <sheet name="#我不会被导出" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="38">
   <si>
     <t>主键</t>
   </si>
@@ -124,6 +123,12 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>周庄</t>
+  </si>
+  <si>
+    <t>辅助</t>
   </si>
 </sst>
 </file>
@@ -131,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,11 +157,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,122 +271,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,12 +303,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -311,174 +484,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,20 +497,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +538,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,194 +594,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -752,54 +757,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1066,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -1074,11 +1079,11 @@
       <selection activeCell="D5" sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="5" max="5" width="24.5446428571429" customWidth="1"/>
-    <col min="6" max="6" width="43.1517857142857" customWidth="1"/>
-    <col min="8" max="8" width="11.7142857142857"/>
+    <col min="5" max="5" width="24.5416666666667" customWidth="1"/>
+    <col min="6" max="6" width="43.15" customWidth="1"/>
+    <col min="8" max="8" width="11.7166666666667"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1247,176 +1252,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="5" max="5" width="30.3482142857143" customWidth="1"/>
-    <col min="6" max="6" width="32.5892857142857" customWidth="1"/>
-    <col min="7" max="7" width="16.6607142857143" customWidth="1"/>
-    <col min="8" max="8" width="20.3839285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>1000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4"/>
-  <cols>
-    <col min="5" max="5" width="30.3482142857143" customWidth="1"/>
-    <col min="6" max="6" width="32.5892857142857" customWidth="1"/>
-    <col min="7" max="7" width="16.6607142857143" customWidth="1"/>
-    <col min="8" max="8" width="20.3839285714286" customWidth="1"/>
+    <col min="5" max="5" width="30.35" customWidth="1"/>
+    <col min="6" max="6" width="32.5916666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.6583333333333" customWidth="1"/>
+    <col min="8" max="8" width="20.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:9">
@@ -1552,7 +1401,34 @@
         <v>30</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
